--- a/data/μ's Complete BEST BOX.xlsx
+++ b/data/μ's Complete BEST BOX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Music\μ's Complete BEST BOX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF735CB-2691-46E5-912F-8788285BA3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335C177C-2450-441E-AA2F-92A1A2F929ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12450" yWindow="0" windowWidth="16455" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="12570" yWindow="0" windowWidth="16335" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="134">
   <si>
     <t>track</t>
   </si>
@@ -349,6 +349,144 @@
   </si>
   <si>
     <t>No brand girls</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>シアワセ行きのSMILING!</t>
+  </si>
+  <si>
+    <t>ずるいよMagnetic today</t>
+  </si>
+  <si>
+    <t>くるりんMIRACLE</t>
+  </si>
+  <si>
+    <t>Storm in Lover</t>
+  </si>
+  <si>
+    <t>もしもからきっと</t>
+  </si>
+  <si>
+    <t>好きですが好きですか？</t>
+  </si>
+  <si>
+    <t>そして最後のページには</t>
+  </si>
+  <si>
+    <t>西木野真姫、矢澤にこ</t>
+  </si>
+  <si>
+    <t>星空 凛</t>
+  </si>
+  <si>
+    <t>絢瀬絵里、園田海未</t>
+  </si>
+  <si>
+    <t>東條 希</t>
+  </si>
+  <si>
+    <t>南ことり、小泉花陽</t>
+  </si>
+  <si>
+    <t>μ's</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yntUCgeBGZ0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9U8PPIeFD1w</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkHZxuj-M2c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7W1QaMBLHls</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZyHn2VMITfM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oygW9_dMYnY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvIesOU_714</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タカラモノズ</t>
+  </si>
+  <si>
+    <t>Paradise Live</t>
+  </si>
+  <si>
+    <t>Shangri-La Shower</t>
+  </si>
+  <si>
+    <t>るてしキスキしてる</t>
+  </si>
+  <si>
+    <t>ミはμ'sicのミ</t>
+  </si>
+  <si>
+    <t>Super LOVE=Super LIVE!</t>
+  </si>
+  <si>
+    <t>HEART to HEART!</t>
+  </si>
+  <si>
+    <t>嵐のなかの恋だから</t>
+  </si>
+  <si>
+    <t>ENDLESS PARADE</t>
+  </si>
+  <si>
+    <t>Dreamin' Go! Go!!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YmqBJKuNamY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kYJHzstbQiw</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0w8avFgPoSE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C1rpyXG9a28</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q52WWd94YEY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eBm1-qOja9A</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pFZYz_qn-co</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SpXdy3UUe2s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6MCHwN8GmaA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5JDC7WXdwFA</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -994,16 +1132,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1659,7 +1797,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1671,7 +1809,7 @@
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>36</v>
       </c>
     </row>
@@ -1679,7 +1817,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1691,7 +1829,7 @@
       <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>37</v>
       </c>
     </row>
@@ -1699,7 +1837,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1711,7 +1849,7 @@
       <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>38</v>
       </c>
     </row>
@@ -1719,7 +1857,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1731,7 +1869,7 @@
       <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17">
         <v>39</v>
       </c>
     </row>
@@ -1739,7 +1877,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1751,7 +1889,7 @@
       <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18">
         <v>40</v>
       </c>
     </row>
@@ -1759,7 +1897,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1771,7 +1909,7 @@
       <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>41</v>
       </c>
     </row>
@@ -1779,7 +1917,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1791,7 +1929,7 @@
       <c r="E20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20">
         <v>42</v>
       </c>
     </row>
@@ -1799,7 +1937,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1811,7 +1949,7 @@
       <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>43</v>
       </c>
     </row>
@@ -1819,7 +1957,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1831,7 +1969,7 @@
       <c r="E22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22">
         <v>45</v>
       </c>
     </row>
@@ -1839,7 +1977,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1859,7 +1997,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1871,7 +2009,7 @@
       <c r="E24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24">
         <v>44</v>
       </c>
     </row>
@@ -1879,7 +2017,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1891,7 +2029,7 @@
       <c r="E25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>47</v>
       </c>
     </row>
@@ -1899,7 +2037,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1911,7 +2049,7 @@
       <c r="E26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26">
         <v>48</v>
       </c>
     </row>
@@ -1919,7 +2057,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1931,7 +2069,7 @@
       <c r="E27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>49</v>
       </c>
     </row>
@@ -1939,7 +2077,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1951,7 +2089,7 @@
       <c r="E28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28">
         <v>54</v>
       </c>
     </row>
@@ -1959,19 +2097,19 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>57</v>
       </c>
     </row>
@@ -1979,7 +2117,7 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1999,7 +2137,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2011,7 +2149,7 @@
       <c r="E31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>65</v>
       </c>
     </row>
@@ -2019,7 +2157,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2031,7 +2169,7 @@
       <c r="E32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>66</v>
       </c>
     </row>
@@ -2039,7 +2177,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2051,7 +2189,7 @@
       <c r="E33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>67</v>
       </c>
     </row>
@@ -2059,7 +2197,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2071,7 +2209,7 @@
       <c r="E34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>68</v>
       </c>
     </row>
@@ -2079,7 +2217,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2091,7 +2229,7 @@
       <c r="E35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>69</v>
       </c>
     </row>
@@ -2099,7 +2237,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2111,7 +2249,7 @@
       <c r="E36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>70</v>
       </c>
     </row>
@@ -2119,7 +2257,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2131,7 +2269,7 @@
       <c r="E37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>71</v>
       </c>
     </row>
@@ -2139,7 +2277,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2151,15 +2289,15 @@
       <c r="E38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="8">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2168,10 +2306,10 @@
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39">
         <v>74</v>
       </c>
     </row>
@@ -2179,7 +2317,7 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="3">
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2194,6 +2332,349 @@
       <c r="F40" s="3">
         <v>75</v>
       </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <v>5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -2296,6 +2777,49 @@
     <hyperlink ref="E38" r:id="rId96" xr:uid="{75F89503-25F9-49CB-8653-309CD0B16930}"/>
     <hyperlink ref="E39" r:id="rId97" xr:uid="{3AB089BC-8369-4ED7-BAE0-610870971E7E}"/>
     <hyperlink ref="E40" r:id="rId98" xr:uid="{E1155F69-332A-4A8F-BB4B-031DD09BE3CD}"/>
+    <hyperlink ref="C41" r:id="rId99" display="https://ll-fans.jp/data/song/73" xr:uid="{9C8E6616-388A-4F77-A7CB-63E72E1E5ADA}"/>
+    <hyperlink ref="C42" r:id="rId100" display="https://ll-fans.jp/data/song/76" xr:uid="{6226979A-AA1B-462D-94C1-01D4BC96A857}"/>
+    <hyperlink ref="C43" r:id="rId101" display="https://ll-fans.jp/data/song/79" xr:uid="{D6BC77E8-773D-4970-83A6-205D4CB93595}"/>
+    <hyperlink ref="C44" r:id="rId102" display="https://ll-fans.jp/data/song/80" xr:uid="{C8547F36-C152-488E-BC36-6BB5AAD95911}"/>
+    <hyperlink ref="C45" r:id="rId103" display="https://ll-fans.jp/data/song/83" xr:uid="{1D630785-464D-410C-B3CD-FD104DB8B86E}"/>
+    <hyperlink ref="C46" r:id="rId104" display="https://ll-fans.jp/data/song/86" xr:uid="{D254E4E2-AC82-47CF-B0C0-1C8ED2E2EF37}"/>
+    <hyperlink ref="C47" r:id="rId105" display="https://ll-fans.jp/data/song/91" xr:uid="{4B72778E-8D96-452C-A1B7-D9AE22002ECA}"/>
+    <hyperlink ref="D41" r:id="rId106" display="https://ll-fans.jp/data/artist/6" xr:uid="{E8495F07-A7B7-4FA7-9321-02F43F09D9C3}"/>
+    <hyperlink ref="D42" r:id="rId107" display="https://ll-fans.jp/data/artist/28" xr:uid="{E7D5CB9D-2F3A-4A71-9D3A-60E4D07F2B60}"/>
+    <hyperlink ref="D43" r:id="rId108" display="https://ll-fans.jp/data/artist/10" xr:uid="{3ACFB298-E4D5-4531-B55E-C8AE9EE0ABD2}"/>
+    <hyperlink ref="D44" r:id="rId109" display="https://ll-fans.jp/data/artist/29" xr:uid="{7B72D49D-E268-4521-B5BA-548629215737}"/>
+    <hyperlink ref="D45" r:id="rId110" display="https://ll-fans.jp/data/artist/12" xr:uid="{304056C4-F852-4928-AE03-3670D107E4A7}"/>
+    <hyperlink ref="D46" r:id="rId111" display="https://ll-fans.jp/data/artist/16" xr:uid="{F392E83D-9C26-4E61-B767-107D990533E6}"/>
+    <hyperlink ref="D47" r:id="rId112" display="https://ll-fans.jp/data/artist/1" xr:uid="{5DC53A84-27BC-476D-BA60-DD6D43D4A07F}"/>
+    <hyperlink ref="E41" r:id="rId113" xr:uid="{1CE24CBD-5B32-4CC5-A232-E0E2C49472FB}"/>
+    <hyperlink ref="E42" r:id="rId114" xr:uid="{F7A234EC-F788-4A0F-9FB5-A6FF347ECD38}"/>
+    <hyperlink ref="E43" r:id="rId115" xr:uid="{4AB8E855-79A0-49EA-84A5-12FD557AB063}"/>
+    <hyperlink ref="E44" r:id="rId116" xr:uid="{926A43F1-F0FD-471E-8FB2-C4DD62A0ED2C}"/>
+    <hyperlink ref="E45" r:id="rId117" xr:uid="{560F48B4-98FC-4EAD-BFBF-D49DA6D770F5}"/>
+    <hyperlink ref="E46" r:id="rId118" xr:uid="{194B7DB7-2492-4C3B-85F7-2A6F22544FED}"/>
+    <hyperlink ref="E47" r:id="rId119" xr:uid="{9233AEE4-D533-486D-9DB7-5212AF4A8C54}"/>
+    <hyperlink ref="C48" r:id="rId120" display="https://ll-fans.jp/data/song/62" xr:uid="{6AD60908-2834-469E-B17B-B1C2F988D63A}"/>
+    <hyperlink ref="C49" r:id="rId121" display="https://ll-fans.jp/data/song/63" xr:uid="{92990CA5-BC09-404E-A8A0-A30D0DB3125D}"/>
+    <hyperlink ref="C50" r:id="rId122" display="https://ll-fans.jp/data/song/81" xr:uid="{610CB8EC-7BCC-480C-8369-A2E806BC6D4E}"/>
+    <hyperlink ref="C51" r:id="rId123" display="https://ll-fans.jp/data/song/82" xr:uid="{AC7F090F-0D32-4A6B-962B-F06EF7A6142B}"/>
+    <hyperlink ref="C52" r:id="rId124" display="https://ll-fans.jp/data/song/96" xr:uid="{1E46099A-6092-4986-8A93-DBC7F8991706}"/>
+    <hyperlink ref="C53" r:id="rId125" display="https://ll-fans.jp/data/song/97" xr:uid="{76634FFC-91EC-4676-B16C-5F5969BA9014}"/>
+    <hyperlink ref="C54" r:id="rId126" display="https://ll-fans.jp/data/song/107" xr:uid="{E5F54A92-DE48-4DAC-8CF0-8A21BE8BEF32}"/>
+    <hyperlink ref="C55" r:id="rId127" display="https://ll-fans.jp/data/song/108" xr:uid="{3E7E1588-4907-4094-AA85-C3765BB861AE}"/>
+    <hyperlink ref="C56" r:id="rId128" display="https://ll-fans.jp/data/song/64" xr:uid="{02FA12AD-903E-4E63-A502-BA9E5588D8CF}"/>
+    <hyperlink ref="C57" r:id="rId129" display="https://ll-fans.jp/data/song/95" xr:uid="{1509CB54-CD1F-4FFD-BC8C-689964435826}"/>
+    <hyperlink ref="D48" r:id="rId130" display="https://ll-fans.jp/data/artist/1" xr:uid="{2736B0AF-E8C9-498C-979A-876CC0C28662}"/>
+    <hyperlink ref="D49:D57" r:id="rId131" display="https://ll-fans.jp/data/artist/1" xr:uid="{21937030-34DB-44D1-BC97-666105742CF4}"/>
+    <hyperlink ref="E48" r:id="rId132" xr:uid="{DAEC9F86-2D7D-41F1-A9E8-B6A4966939F7}"/>
+    <hyperlink ref="E49" r:id="rId133" xr:uid="{76874757-1277-4440-BAAC-72BDFCA38D80}"/>
+    <hyperlink ref="E50" r:id="rId134" xr:uid="{563AF814-7F94-4472-A4CA-10FF158F5532}"/>
+    <hyperlink ref="E51" r:id="rId135" xr:uid="{2266E719-928A-4FB3-B2FE-754ABD744644}"/>
+    <hyperlink ref="E52" r:id="rId136" xr:uid="{F52A4C64-A400-40CF-A05A-AB1E90BA8A5F}"/>
+    <hyperlink ref="E53" r:id="rId137" xr:uid="{E1F38092-2499-4A50-9CED-2FA133189AC8}"/>
+    <hyperlink ref="E54" r:id="rId138" xr:uid="{925B2957-BAC5-4D19-8C60-A276E3AF6974}"/>
+    <hyperlink ref="E55" r:id="rId139" xr:uid="{83FCCCE3-6E28-482B-BD8F-F08AE63B7F99}"/>
+    <hyperlink ref="E56" r:id="rId140" xr:uid="{FE1D8439-C4EC-4E1D-8606-0D7A667A44E5}"/>
+    <hyperlink ref="E57" r:id="rId141" xr:uid="{6E5F3263-EE8C-44BA-B75E-87F261922BEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/μ's Complete BEST BOX.xlsx
+++ b/data/μ's Complete BEST BOX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Music\μ's Complete BEST BOX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335C177C-2450-441E-AA2F-92A1A2F929ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43A9DB-B37A-40AE-AD52-821A1E0F212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="0" windowWidth="16335" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="15885" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="178">
   <si>
     <t>track</t>
   </si>
@@ -487,6 +487,159 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5JDC7WXdwFA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Love marginal</t>
+  </si>
+  <si>
+    <t>sweet&amp;sweet holiday</t>
+  </si>
+  <si>
+    <t>Pure girls project</t>
+  </si>
+  <si>
+    <t>UNBALANCED LOVE</t>
+  </si>
+  <si>
+    <t>永遠フレンズ</t>
+  </si>
+  <si>
+    <t>小夜啼鳥恋詩</t>
+  </si>
+  <si>
+    <t>WAO-WAO Powerful day!</t>
+  </si>
+  <si>
+    <t>NO EXIT ORION</t>
+  </si>
+  <si>
+    <t>ぷわぷわーお!</t>
+  </si>
+  <si>
+    <t>CheerDay CheerGirl!</t>
+  </si>
+  <si>
+    <t>MUSEUMでどうしたい？</t>
+  </si>
+  <si>
+    <t>Printemps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0yrU8z6bGGg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZwM5JMglwx0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TTraARQlyD8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hfV66t9KoJA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o_aNwSxti88</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CkeblSrHSXw</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=451oL6lI_Bo</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PCSnu1WVzuw</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yRqN8_FOHjI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=if-c2HOoBnw</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=asU33AscyFM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ダイヤモンドプリンセスの憂鬱</t>
+  </si>
+  <si>
+    <t>ラブノベルス</t>
+  </si>
+  <si>
+    <t>Cutie Panther</t>
+  </si>
+  <si>
+    <t>夏、終わらないで。</t>
+  </si>
+  <si>
+    <t>冬がくれた予感</t>
+  </si>
+  <si>
+    <t>Trouble Busters</t>
+  </si>
+  <si>
+    <t>錯覚CROSSROADS</t>
+  </si>
+  <si>
+    <t>PSYCHIC FIRE</t>
+  </si>
+  <si>
+    <t>Silent tonight</t>
+  </si>
+  <si>
+    <t>最低で最高のParadiso</t>
+  </si>
+  <si>
+    <t>BiBi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ptja6yej7s4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=osKlSVYbb28</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NXNfMwUR-w4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4K7_eD4EedQ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QJXmBU-Pajc</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mQvWniRXXPs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MkMfmktnN5c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zHuJijck8dY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zAFyJXBbGQQ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pw5eVaCzA9c</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1520,17 +1673,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="56.625" customWidth="1"/>
+    <col min="5" max="5" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -2674,7 +2827,754 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F58" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F59" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F65" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7">
+        <v>7</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8">
+        <v>7</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F68" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8">
+        <v>8</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -2820,6 +3720,52 @@
     <hyperlink ref="E55" r:id="rId139" xr:uid="{83FCCCE3-6E28-482B-BD8F-F08AE63B7F99}"/>
     <hyperlink ref="E56" r:id="rId140" xr:uid="{FE1D8439-C4EC-4E1D-8606-0D7A667A44E5}"/>
     <hyperlink ref="E57" r:id="rId141" xr:uid="{6E5F3263-EE8C-44BA-B75E-87F261922BEE}"/>
+    <hyperlink ref="C58" r:id="rId142" display="https://ll-fans.jp/data/song/5" xr:uid="{63B210B5-7BF4-48B8-B3CC-84C7A4106399}"/>
+    <hyperlink ref="C59" r:id="rId143" display="https://ll-fans.jp/data/song/6" xr:uid="{140DBABF-C859-4AC9-A087-0F5C7843BCC7}"/>
+    <hyperlink ref="C60" r:id="rId144" display="https://ll-fans.jp/data/song/55" xr:uid="{2AFC7C6F-3FE7-481A-AD60-1930D68EF4BE}"/>
+    <hyperlink ref="C61" r:id="rId145" display="https://ll-fans.jp/data/song/56" xr:uid="{1EE49851-91F2-4874-9F75-F932CDAAB135}"/>
+    <hyperlink ref="C62" r:id="rId146" display="https://ll-fans.jp/data/song/84" xr:uid="{5FECE1DC-7B1B-4CD8-A03C-BAE19A78CEE0}"/>
+    <hyperlink ref="C63" r:id="rId147" display="https://ll-fans.jp/data/song/85" xr:uid="{8CC7F6DC-4DDB-4F62-902E-40121343244E}"/>
+    <hyperlink ref="C64" r:id="rId148" display="https://ll-fans.jp/data/song/109" xr:uid="{2C3577F2-C51F-475F-AFF1-BEC2A800FE6E}"/>
+    <hyperlink ref="C65" r:id="rId149" display="https://ll-fans.jp/data/song/110" xr:uid="{C0865745-6199-4C5A-8A3B-02234AD22531}"/>
+    <hyperlink ref="C66" r:id="rId150" display="https://ll-fans.jp/data/song/59" xr:uid="{AB9F0643-7EC6-42B8-818B-108164E119B6}"/>
+    <hyperlink ref="C67" r:id="rId151" display="https://ll-fans.jp/data/song/92" xr:uid="{380B4534-E6FA-43D3-AC69-A562435729D8}"/>
+    <hyperlink ref="C68" r:id="rId152" display="https://ll-fans.jp/data/song/98" xr:uid="{CB045905-BE6C-4708-B73B-646173318F57}"/>
+    <hyperlink ref="D58" r:id="rId153" display="https://ll-fans.jp/data/artist/2" xr:uid="{4C77F035-5A89-4324-8E77-0D8969B66246}"/>
+    <hyperlink ref="D59:D68" r:id="rId154" display="https://ll-fans.jp/data/artist/2" xr:uid="{6BC0F8FA-35F5-4523-8FDB-3C7C4C8FDFCB}"/>
+    <hyperlink ref="E58" r:id="rId155" xr:uid="{22F82764-58CE-4E91-95A5-2323802123E4}"/>
+    <hyperlink ref="E59" r:id="rId156" xr:uid="{D8DD5FAB-D1EE-44F7-9528-924FF93EB7D3}"/>
+    <hyperlink ref="E60" r:id="rId157" xr:uid="{7D9C9537-2407-4E7A-9BBB-E700969C4758}"/>
+    <hyperlink ref="E61" r:id="rId158" xr:uid="{DE4C6B5A-C449-4E2C-8CA6-E226008EA811}"/>
+    <hyperlink ref="E62" r:id="rId159" xr:uid="{6A217282-8C26-4641-B133-B3BFE6AEF6A0}"/>
+    <hyperlink ref="E63" r:id="rId160" xr:uid="{E8E35E09-F675-4731-8512-133A16038B43}"/>
+    <hyperlink ref="E64" r:id="rId161" xr:uid="{BB56ED1A-CEB6-478C-A607-9EFBED6D94DF}"/>
+    <hyperlink ref="E65" r:id="rId162" xr:uid="{F677E8AA-983F-4FD9-8BC4-2B1266715786}"/>
+    <hyperlink ref="E66" r:id="rId163" xr:uid="{62F9C210-FDA5-40FE-A1C3-06E7E28A5878}"/>
+    <hyperlink ref="E67" r:id="rId164" xr:uid="{DC258907-F98E-4C13-9EAE-9BA03CD32A28}"/>
+    <hyperlink ref="E68" r:id="rId165" xr:uid="{F97C3B33-D5E7-4079-B52C-F83AAC78C82F}"/>
+    <hyperlink ref="C69" r:id="rId166" display="https://ll-fans.jp/data/song/7" xr:uid="{AFE12E91-3989-4097-9A85-840CECB9C21B}"/>
+    <hyperlink ref="C70" r:id="rId167" display="https://ll-fans.jp/data/song/8" xr:uid="{5E9AA33E-61BC-4491-9882-74BE385F711F}"/>
+    <hyperlink ref="C71" r:id="rId168" display="https://ll-fans.jp/data/song/52" xr:uid="{91E5C239-E873-4D6C-9566-D3B40CF1B42C}"/>
+    <hyperlink ref="C72" r:id="rId169" display="https://ll-fans.jp/data/song/53" xr:uid="{C5A947E6-0B13-45B7-A8CB-0CF70ABB9CF8}"/>
+    <hyperlink ref="C73" r:id="rId170" display="https://ll-fans.jp/data/song/89" xr:uid="{25D5B923-C184-45AD-8362-DA82D4280E52}"/>
+    <hyperlink ref="C74" r:id="rId171" display="https://ll-fans.jp/data/song/90" xr:uid="{DC861216-4653-4558-8F35-303B8241DE0D}"/>
+    <hyperlink ref="C75" r:id="rId172" display="https://ll-fans.jp/data/song/114" xr:uid="{1608E7B8-AD8C-48B9-B49C-969609C6C01C}"/>
+    <hyperlink ref="C76" r:id="rId173" display="https://ll-fans.jp/data/song/115" xr:uid="{49A2BC92-048B-4348-AAB6-33E2E220CE38}"/>
+    <hyperlink ref="C77" r:id="rId174" display="https://ll-fans.jp/data/song/94" xr:uid="{AF12DBF8-7E64-40AA-96A2-5562F4B95A93}"/>
+    <hyperlink ref="C78" r:id="rId175" display="https://ll-fans.jp/data/song/99" xr:uid="{A0401594-421A-4CFB-B164-76EC75CFD569}"/>
+    <hyperlink ref="D69" r:id="rId176" display="https://ll-fans.jp/data/artist/4" xr:uid="{62C6505F-0CC7-4541-83A0-91BF32FCC5A9}"/>
+    <hyperlink ref="D70:D78" r:id="rId177" display="https://ll-fans.jp/data/artist/4" xr:uid="{3233AEB3-F2B2-4F8F-8AF0-3C566CB6D564}"/>
+    <hyperlink ref="E69" r:id="rId178" xr:uid="{2A9F5DDF-7799-4818-8B11-FB51E9AEBF19}"/>
+    <hyperlink ref="E70" r:id="rId179" xr:uid="{3C394F1C-6BA8-4D92-B3D5-338BA6FC8C0B}"/>
+    <hyperlink ref="E71" r:id="rId180" xr:uid="{F028DC34-7630-4E22-9700-E25812281872}"/>
+    <hyperlink ref="E72" r:id="rId181" xr:uid="{1E7E7C13-1247-4222-B12B-8D3A20085F43}"/>
+    <hyperlink ref="E73" r:id="rId182" xr:uid="{BD951338-A7CB-48AF-B199-13ED0382F4FD}"/>
+    <hyperlink ref="E74" r:id="rId183" xr:uid="{8302BCF7-DA1A-4E05-808E-54018FA327C6}"/>
+    <hyperlink ref="E75" r:id="rId184" xr:uid="{568EF1D2-2CC3-4C12-A7F7-80245C7DCEAF}"/>
+    <hyperlink ref="E76" r:id="rId185" xr:uid="{FD55A634-442C-4F2E-941E-F87A41244290}"/>
+    <hyperlink ref="E77" r:id="rId186" xr:uid="{FACA6EAC-A2C8-4FCA-AE9F-8DFDED6A79E1}"/>
+    <hyperlink ref="E78" r:id="rId187" xr:uid="{F627381B-7107-44F6-A2D1-75049F83BB07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/μ's Complete BEST BOX.xlsx
+++ b/data/μ's Complete BEST BOX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Music\μ's Complete BEST BOX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43A9DB-B37A-40AE-AD52-821A1E0F212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C51AE-D6D4-454F-B876-1FFC4B32712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13020" yWindow="0" windowWidth="15885" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
   <si>
     <t>track</t>
   </si>
@@ -640,6 +640,79 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Pw5eVaCzA9c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>知らないLove*教えてLove</t>
+  </si>
+  <si>
+    <t>あ・の・ね・が・ん・ば・れ！</t>
+  </si>
+  <si>
+    <t>微熱からMystery</t>
+  </si>
+  <si>
+    <t>キミのくせに！</t>
+  </si>
+  <si>
+    <t>秋のあなたの空遠く</t>
+  </si>
+  <si>
+    <t>ふたりハピネス</t>
+  </si>
+  <si>
+    <t>思い出以上になりたくて</t>
+  </si>
+  <si>
+    <t>春情ロマンティック</t>
+  </si>
+  <si>
+    <t>同じ星が見たい</t>
+  </si>
+  <si>
+    <t>乙姫心で恋宮殿</t>
+  </si>
+  <si>
+    <t>lily white</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f2oroXbhPaI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8EjUGoY8DjA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QUTZwSodwJc</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0UWu1ws6bos</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=T_pwUsDtd1s</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zZ7kRTD1EX4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7z_Hc6icSNc</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ORZtKVpwlG0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OfZv_nOXTkY</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4wq7yB3dNow</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1675,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3250,88 +3323,238 @@
       <c r="A79" s="7">
         <v>78</v>
       </c>
+      <c r="B79" s="7">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F79" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B80" s="7">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B81" s="7">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B82" s="7">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B83" s="7">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F83" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B84" s="7">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="7">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B85" s="7">
+        <v>9</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F85" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B86" s="7">
+        <v>9</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F86" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A88" s="7">
+      <c r="B87" s="7">
+        <v>9</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B88" s="8">
+        <v>9</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="7">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -3766,6 +3989,28 @@
     <hyperlink ref="E76" r:id="rId185" xr:uid="{FD55A634-442C-4F2E-941E-F87A41244290}"/>
     <hyperlink ref="E77" r:id="rId186" xr:uid="{FACA6EAC-A2C8-4FCA-AE9F-8DFDED6A79E1}"/>
     <hyperlink ref="E78" r:id="rId187" xr:uid="{F627381B-7107-44F6-A2D1-75049F83BB07}"/>
+    <hyperlink ref="C79" r:id="rId188" display="https://ll-fans.jp/data/song/9" xr:uid="{9F2E51BA-9F0C-41DC-832C-E69C550F8761}"/>
+    <hyperlink ref="C80" r:id="rId189" display="https://ll-fans.jp/data/song/10" xr:uid="{290C7868-8D8D-4D5F-AFB9-1E0242F9DFC9}"/>
+    <hyperlink ref="C81" r:id="rId190" display="https://ll-fans.jp/data/song/50" xr:uid="{C00B98E1-64F6-495B-A149-1D7F86765360}"/>
+    <hyperlink ref="C82" r:id="rId191" display="https://ll-fans.jp/data/song/51" xr:uid="{86144813-983E-4F8E-97F7-B98EF70D3787}"/>
+    <hyperlink ref="C83" r:id="rId192" display="https://ll-fans.jp/data/song/87" xr:uid="{403D6DB3-9B43-4578-B4A5-E755588BDC79}"/>
+    <hyperlink ref="C84" r:id="rId193" display="https://ll-fans.jp/data/song/88" xr:uid="{4F810B44-D672-45B6-B5EF-8B03DF7BA866}"/>
+    <hyperlink ref="C85" r:id="rId194" display="https://ll-fans.jp/data/song/112" xr:uid="{0ABF33A8-D09E-4311-9BB9-183D95B2E624}"/>
+    <hyperlink ref="C86" r:id="rId195" display="https://ll-fans.jp/data/song/113" xr:uid="{15D2BB19-A405-4EF1-9707-3F3548D51E15}"/>
+    <hyperlink ref="C87" r:id="rId196" display="https://ll-fans.jp/data/song/93" xr:uid="{1ED467CF-04B0-4938-8B86-531D6C81CC21}"/>
+    <hyperlink ref="C88" r:id="rId197" display="https://ll-fans.jp/data/song/100" xr:uid="{A295C462-00C2-44AD-9F0D-8798C7A9CFDE}"/>
+    <hyperlink ref="D79" r:id="rId198" display="https://ll-fans.jp/data/artist/3" xr:uid="{8C58ECD0-BD63-47B5-8C85-6958FE3C4AB1}"/>
+    <hyperlink ref="D80:D88" r:id="rId199" display="https://ll-fans.jp/data/artist/3" xr:uid="{E436436A-F8AE-4FD4-A5C3-109E882CADBC}"/>
+    <hyperlink ref="E79" r:id="rId200" xr:uid="{98696259-A681-4E73-99C0-9638AEE5B42F}"/>
+    <hyperlink ref="E80" r:id="rId201" xr:uid="{CC868F59-3CBB-4C67-91A3-17FE6E0CE11D}"/>
+    <hyperlink ref="E81" r:id="rId202" xr:uid="{5AAEB98A-5705-4C4D-9B99-0F667CAB7C9E}"/>
+    <hyperlink ref="E82" r:id="rId203" xr:uid="{156FA1B2-A941-47E5-ABCE-963ED24C9A49}"/>
+    <hyperlink ref="E83" r:id="rId204" xr:uid="{3CBC2B81-D190-4757-BEB5-1FDC89F97F56}"/>
+    <hyperlink ref="E84" r:id="rId205" xr:uid="{E030F41A-3337-4F71-8712-0CCE6EB5EA19}"/>
+    <hyperlink ref="E85" r:id="rId206" xr:uid="{1B0B40DC-A0D0-4D79-9415-FE7B8E6AD43B}"/>
+    <hyperlink ref="E86" r:id="rId207" xr:uid="{E5AA2178-7506-4CD4-9DB9-FFB8E9F09B00}"/>
+    <hyperlink ref="E87" r:id="rId208" xr:uid="{5723620A-B2E7-447D-AFF5-A4E989FE1F61}"/>
+    <hyperlink ref="E88" r:id="rId209" xr:uid="{7E257D83-EB57-4429-B6AC-EEDB401B6D35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/μ's Complete BEST BOX.xlsx
+++ b/data/μ's Complete BEST BOX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Music\μ's Complete BEST BOX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735C51AE-D6D4-454F-B876-1FFC4B32712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80532BA8-8B9C-410D-95E2-9A66D0C26C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="15885" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="13275" yWindow="0" windowWidth="15630" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="245">
   <si>
     <t>track</t>
   </si>
@@ -713,6 +713,163 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4wq7yB3dNow</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Mermaid festa vol.2 ～Passionate～</t>
+  </si>
+  <si>
+    <t>Someday of my life</t>
+  </si>
+  <si>
+    <t>恋のシグナルRin rin rin!</t>
+  </si>
+  <si>
+    <t>乙女式れんあい塾</t>
+  </si>
+  <si>
+    <t>まほうつかいはじめました！</t>
+  </si>
+  <si>
+    <t>純愛レンズ</t>
+  </si>
+  <si>
+    <t>告白日和、です！</t>
+  </si>
+  <si>
+    <t>ぶる～べりぃ♡とれいん</t>
+  </si>
+  <si>
+    <t>孤独なHeaven</t>
+  </si>
+  <si>
+    <t>高坂穂乃果、星空 凛</t>
+  </si>
+  <si>
+    <t>東條 希、矢澤にこ</t>
+  </si>
+  <si>
+    <t>南ことり</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WW97E1XfIjw</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R6FQ3Dwkez0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pn_Tr9H915A</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cU_CYqNkGT4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O2OKMwLnNvQ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1rCV_Wivh_E</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l-B3aDlI-co</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L8JfI5aJoVg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xUPcrYKe-JE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>soldier game</t>
+  </si>
+  <si>
+    <t>Daring!!</t>
+  </si>
+  <si>
+    <t>勇気のReason</t>
+  </si>
+  <si>
+    <t>ありふれた悲しみの果て</t>
+  </si>
+  <si>
+    <t>愛は太陽じゃない？</t>
+  </si>
+  <si>
+    <t>もうひとりじゃないよ</t>
+  </si>
+  <si>
+    <t>スピカテリブル</t>
+  </si>
+  <si>
+    <t>私たちは未来の花</t>
+  </si>
+  <si>
+    <t>Listen to my heart!!</t>
+  </si>
+  <si>
+    <t>after school NAVIGATORS</t>
+  </si>
+  <si>
+    <t>西木野真姫、園田海未、絢瀬絵里</t>
+  </si>
+  <si>
+    <t>西木野真姫</t>
+  </si>
+  <si>
+    <t>園田海未</t>
+  </si>
+  <si>
+    <t>絢瀬絵里</t>
+  </si>
+  <si>
+    <t>にこりんぱな</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ot2LMV0d1Ac</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L2wfRqjHW3Y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGuTNtOdN_E</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NncyZQuAnvM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=K6N2oSClFus</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iMGkGzAN31c</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dyNG275vqfs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C14xftSCLCA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0kivo9WZ72g</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zMipXg-4LE4</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1342,7 +1499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,9 +1516,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1746,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA29749A-82A8-4862-8B4B-9A1914C248D5}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2563,7 +2717,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2575,15 +2729,15 @@
       <c r="E41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="6">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42">
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2595,15 +2749,15 @@
       <c r="E42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="6">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2615,15 +2769,15 @@
       <c r="E43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="6">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2635,15 +2789,15 @@
       <c r="E44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="6">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2655,15 +2809,15 @@
       <c r="E45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2675,7 +2829,7 @@
       <c r="E46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46">
         <v>86</v>
       </c>
     </row>
@@ -2683,7 +2837,7 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="3">
         <v>5</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2695,15 +2849,15 @@
       <c r="E47" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="7">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2715,15 +2869,15 @@
       <c r="E48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="7">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2735,15 +2889,15 @@
       <c r="E49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="7">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2755,15 +2909,15 @@
       <c r="E50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="7">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2775,15 +2929,15 @@
       <c r="E51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="7">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2795,15 +2949,15 @@
       <c r="E52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="7">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53">
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2815,15 +2969,15 @@
       <c r="E53" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="7">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54">
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2835,15 +2989,15 @@
       <c r="E54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="7">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55">
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2855,15 +3009,15 @@
       <c r="E55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="7">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2875,15 +3029,15 @@
       <c r="E56" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56">
         <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="8">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="3">
         <v>6</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2895,15 +3049,15 @@
       <c r="E57" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="7">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2915,15 +3069,15 @@
       <c r="E58" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="7">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2935,15 +3089,15 @@
       <c r="E59" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="7">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2955,15 +3109,15 @@
       <c r="E60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60">
         <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="7">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2975,15 +3129,15 @@
       <c r="E61" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61">
         <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="7">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2995,15 +3149,15 @@
       <c r="E62" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62">
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="7">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3015,15 +3169,15 @@
       <c r="E63" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63">
         <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="7">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -3035,15 +3189,15 @@
       <c r="E64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64">
         <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="7">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3055,15 +3209,15 @@
       <c r="E65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65">
         <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="7">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3075,15 +3229,15 @@
       <c r="E66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="7">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3095,15 +3249,15 @@
       <c r="E67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67">
         <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="8">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="3">
         <v>7</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3115,15 +3269,15 @@
       <c r="E68" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="7">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3135,15 +3289,15 @@
       <c r="E69" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="7">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3155,15 +3309,15 @@
       <c r="E70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="7">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71">
         <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3175,15 +3329,15 @@
       <c r="E71" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71">
         <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="7">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72">
         <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3195,15 +3349,15 @@
       <c r="E72" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72">
         <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="7">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73">
         <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3215,15 +3369,15 @@
       <c r="E73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="7">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74">
         <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3235,15 +3389,15 @@
       <c r="E74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="7">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75">
         <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3255,15 +3409,15 @@
       <c r="E75" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75">
         <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="7">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3275,15 +3429,15 @@
       <c r="E76" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76">
         <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="7">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77">
         <v>8</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3295,15 +3449,15 @@
       <c r="E77" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77">
         <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="8">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="3">
         <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -3315,15 +3469,15 @@
       <c r="E78" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="7">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3335,15 +3489,15 @@
       <c r="E79" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="7">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3355,15 +3509,15 @@
       <c r="E80" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="7">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3375,15 +3529,15 @@
       <c r="E81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81">
         <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="7">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3395,15 +3549,15 @@
       <c r="E82" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82">
         <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="7">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3415,15 +3569,15 @@
       <c r="E83" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83">
         <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="7">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84">
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3435,15 +3589,15 @@
       <c r="E84" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84">
         <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="7">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85">
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3455,15 +3609,15 @@
       <c r="E85" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85">
         <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="7">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3475,15 +3629,15 @@
       <c r="E86" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86">
         <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="7">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3495,15 +3649,15 @@
       <c r="E87" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87">
         <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="8">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="3">
         <v>9</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3515,288 +3669,438 @@
       <c r="E88" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="7">
+      <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="6">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F89" s="6">
+        <v>19</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="7">
+      <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" s="6">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="7">
+      <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" s="6">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="7">
+      <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" s="6">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="6">
+        <v>22</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="7">
+      <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" s="6">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F93" s="6">
+        <v>23</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="7">
+      <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" s="6">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="6">
+        <v>24</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="7">
+      <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" s="6">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" s="6">
+        <v>25</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="7">
+      <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A97" s="7">
+      <c r="B96" s="6">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F96" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A98" s="7">
+      <c r="B97" s="7">
+        <v>10</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F97" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A99" s="7">
+      <c r="B98" s="6">
+        <v>11</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A100" s="7">
+      <c r="B99" s="6">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A101" s="7">
+      <c r="B100" s="6">
+        <v>11</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F100" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A102" s="7">
+      <c r="B101" s="6">
+        <v>11</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A103" s="7">
+      <c r="B102" s="6">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F102" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A104" s="7">
+      <c r="B103" s="6">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F103" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A105" s="7">
+      <c r="B104" s="6">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F104" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A106" s="7">
+      <c r="B105" s="6">
+        <v>11</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F105" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A107" s="7">
+      <c r="B106" s="6">
+        <v>11</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F106" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A108" s="7">
+      <c r="B107" s="7">
+        <v>11</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A109" s="7">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A110" s="7">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A111" s="7">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A112" s="7">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A113" s="7">
+      <c r="A113">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A114" s="7">
+      <c r="A114">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A115" s="7">
+      <c r="A115">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A116" s="7">
+      <c r="A116">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A117" s="7">
+      <c r="A117">
         <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A118" s="7">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A119" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A120" s="7">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A121" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A122" s="7">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A123" s="7">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A124" s="7">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A125" s="7">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A126" s="7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A127" s="7">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A128" s="7">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A129" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A130" s="7">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A131" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A132" s="7">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A133" s="7">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A134" s="7">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A135" s="7">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A136" s="7">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A137" s="7">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A138" s="7">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A139" s="7">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A140" s="7">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A141" s="7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A142" s="7">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A143" s="7">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A144" s="7">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4011,6 +4315,63 @@
     <hyperlink ref="E86" r:id="rId207" xr:uid="{E5AA2178-7506-4CD4-9DB9-FFB8E9F09B00}"/>
     <hyperlink ref="E87" r:id="rId208" xr:uid="{5723620A-B2E7-447D-AFF5-A4E989FE1F61}"/>
     <hyperlink ref="E88" r:id="rId209" xr:uid="{7E257D83-EB57-4429-B6AC-EEDB401B6D35}"/>
+    <hyperlink ref="C89" r:id="rId210" display="https://ll-fans.jp/data/song/19" xr:uid="{605E00D9-8CC0-44C1-AC74-CB04629197C3}"/>
+    <hyperlink ref="C90" r:id="rId211" display="https://ll-fans.jp/data/song/20" xr:uid="{5C4119E5-7A01-4E02-A153-8DC3BC4C7C54}"/>
+    <hyperlink ref="C91" r:id="rId212" display="https://ll-fans.jp/data/song/21" xr:uid="{57FE2572-EC17-4DBA-9D11-86C3503DA85D}"/>
+    <hyperlink ref="C92" r:id="rId213" display="https://ll-fans.jp/data/song/22" xr:uid="{98548826-2D00-4BA6-BCEB-54AF5DA06F99}"/>
+    <hyperlink ref="C93" r:id="rId214" display="https://ll-fans.jp/data/song/23" xr:uid="{9A9E9160-811A-4389-BD2A-7FA88108962D}"/>
+    <hyperlink ref="C94" r:id="rId215" display="https://ll-fans.jp/data/song/24" xr:uid="{EC7A9D96-D48E-40CD-94A5-C69195BFAE24}"/>
+    <hyperlink ref="C95" r:id="rId216" display="https://ll-fans.jp/data/song/25" xr:uid="{31815E58-430C-4D7D-B7AB-49994259DA74}"/>
+    <hyperlink ref="C96" r:id="rId217" display="https://ll-fans.jp/data/song/26" xr:uid="{D5535EFE-B4D3-4F33-B52A-F969ACA950E3}"/>
+    <hyperlink ref="C97" r:id="rId218" display="https://ll-fans.jp/data/song/27" xr:uid="{ADFC68BE-22B9-4D8B-8F27-77E1E567DD44}"/>
+    <hyperlink ref="D89" r:id="rId219" display="https://ll-fans.jp/data/artist/15" xr:uid="{769263B0-3D26-4297-86F8-7F70929B0140}"/>
+    <hyperlink ref="D90" r:id="rId220" display="https://ll-fans.jp/data/artist/6" xr:uid="{4622A16E-083E-4F85-9BF5-E7164F50B43D}"/>
+    <hyperlink ref="D91" r:id="rId221" display="https://ll-fans.jp/data/artist/10" xr:uid="{27ECE063-7DFD-4686-8BA7-35AF0849FEB6}"/>
+    <hyperlink ref="D92" r:id="rId222" display="https://ll-fans.jp/data/artist/17" xr:uid="{89DD090C-45D6-4259-8B48-02765ACF29E4}"/>
+    <hyperlink ref="D93" r:id="rId223" display="https://ll-fans.jp/data/artist/14" xr:uid="{8C59EB43-117B-4CC0-AE66-C3A8283CC728}"/>
+    <hyperlink ref="D94" r:id="rId224" display="https://ll-fans.jp/data/artist/12" xr:uid="{47EDC4B4-F44B-4FF1-B833-1BC200EF8277}"/>
+    <hyperlink ref="D95" r:id="rId225" display="https://ll-fans.jp/data/artist/16" xr:uid="{B076F709-D836-4F79-B5F9-FDF4902EFE04}"/>
+    <hyperlink ref="D96" r:id="rId226" display="https://ll-fans.jp/data/artist/8" xr:uid="{E2D2661F-FB7C-47B8-B349-ED5D2AA02666}"/>
+    <hyperlink ref="D97" r:id="rId227" display="https://ll-fans.jp/data/artist/13" xr:uid="{EDEC8F70-12F1-47EF-B369-B9A24344F250}"/>
+    <hyperlink ref="E89" r:id="rId228" xr:uid="{F0CF8A64-2745-4556-A2AB-5377C50DBF80}"/>
+    <hyperlink ref="E90" r:id="rId229" xr:uid="{F2CDE8BF-2184-4F90-B12E-3CF36FA1BAD9}"/>
+    <hyperlink ref="E91" r:id="rId230" xr:uid="{AAAAAB40-E99F-4F95-8A22-2220C09C870A}"/>
+    <hyperlink ref="E92" r:id="rId231" xr:uid="{DB9E80B1-246A-436C-8A74-DC6C2B0210FD}"/>
+    <hyperlink ref="E93" r:id="rId232" xr:uid="{586ED6CC-62AA-4ADD-BCF2-EB47F3C269F7}"/>
+    <hyperlink ref="E94" r:id="rId233" xr:uid="{43EDEA9A-986F-4BDC-8CC5-C5108A17E225}"/>
+    <hyperlink ref="E95" r:id="rId234" xr:uid="{8D496239-8060-4202-AC24-F9DDD6CFB37D}"/>
+    <hyperlink ref="E96" r:id="rId235" xr:uid="{E79ED99C-E920-4D59-A60F-4B74AB1BECB0}"/>
+    <hyperlink ref="E97" r:id="rId236" xr:uid="{499DF689-5867-49AF-AF55-35744F228D4D}"/>
+    <hyperlink ref="C98" r:id="rId237" display="https://ll-fans.jp/data/song/28" xr:uid="{71EA047D-090F-4BE8-A5CC-E85FEB7A9B5F}"/>
+    <hyperlink ref="C99" r:id="rId238" display="https://ll-fans.jp/data/song/29" xr:uid="{6B18A1F7-1850-4005-8022-05E5F5928F83}"/>
+    <hyperlink ref="C100" r:id="rId239" display="https://ll-fans.jp/data/song/30" xr:uid="{C47ECE8D-5B5B-4C6C-A18F-8D6E8DF7E055}"/>
+    <hyperlink ref="C101" r:id="rId240" display="https://ll-fans.jp/data/song/31" xr:uid="{55053F22-B8A9-4133-B9B0-EBEB26DC28AC}"/>
+    <hyperlink ref="C102" r:id="rId241" display="https://ll-fans.jp/data/song/15" xr:uid="{388BE9E7-7C99-4403-A1EA-5EF637EE732F}"/>
+    <hyperlink ref="C103" r:id="rId242" display="https://ll-fans.jp/data/song/16" xr:uid="{FA9A6857-B927-483A-BF80-6A569D1B1E3B}"/>
+    <hyperlink ref="C104" r:id="rId243" display="https://ll-fans.jp/data/song/14" xr:uid="{34F47A32-EF2F-4965-B795-2B891B9936A9}"/>
+    <hyperlink ref="C105" r:id="rId244" display="https://ll-fans.jp/data/song/13" xr:uid="{B71C84C6-CEE5-452A-98AD-80DBA7B02E46}"/>
+    <hyperlink ref="C106" r:id="rId245" display="https://ll-fans.jp/data/song/34" xr:uid="{D40A115D-013D-40ED-B8A1-41BA68AAD7D7}"/>
+    <hyperlink ref="C107" r:id="rId246" display="https://ll-fans.jp/data/song/35" xr:uid="{991FC8A4-CB8D-4B03-BD41-191294E5251C}"/>
+    <hyperlink ref="D98" r:id="rId247" display="https://ll-fans.jp/data/artist/18" xr:uid="{8D3890CE-BA7B-40B9-98C1-59158588D690}"/>
+    <hyperlink ref="D99" r:id="rId248" display="https://ll-fans.jp/data/artist/11" xr:uid="{97188DEB-E9B8-421E-982E-E715B6B276C2}"/>
+    <hyperlink ref="D100" r:id="rId249" display="https://ll-fans.jp/data/artist/9" xr:uid="{F28A2A88-DB7B-4B52-99AE-8322FAE2683B}"/>
+    <hyperlink ref="D101" r:id="rId250" display="https://ll-fans.jp/data/artist/7" xr:uid="{14559B50-B2DA-496F-8DCD-BAAD46C4CE22}"/>
+    <hyperlink ref="D102" r:id="rId251" display="https://ll-fans.jp/data/artist/6" xr:uid="{E80A862D-6A7A-46D5-B2EF-D3F5957DEF3B}"/>
+    <hyperlink ref="D103" r:id="rId252" display="https://ll-fans.jp/data/artist/6" xr:uid="{72E96F6C-4B2D-4AAD-8B2C-9718C353A009}"/>
+    <hyperlink ref="D104" r:id="rId253" display="https://ll-fans.jp/data/artist/8" xr:uid="{76C33C8F-BB43-4313-B983-6A6D5A04A51F}"/>
+    <hyperlink ref="D105" r:id="rId254" display="https://ll-fans.jp/data/artist/9" xr:uid="{9FA30CB7-1B58-4334-AC5C-667FF31C5569}"/>
+    <hyperlink ref="D106" r:id="rId255" display="https://ll-fans.jp/data/artist/5" xr:uid="{7998BC8E-9215-4AF4-9B08-FCF088066BBA}"/>
+    <hyperlink ref="D107" r:id="rId256" display="https://ll-fans.jp/data/artist/5" xr:uid="{11A9666A-3E4D-41C0-BB8E-83852F6BE2DA}"/>
+    <hyperlink ref="E98" r:id="rId257" xr:uid="{11CD09F3-D275-485E-B722-7D7B599072C5}"/>
+    <hyperlink ref="E99" r:id="rId258" xr:uid="{BC7189BA-6C49-442F-B7AF-6F27DA41FD1B}"/>
+    <hyperlink ref="E100" r:id="rId259" xr:uid="{D3958F87-8A3C-4B44-BAC8-99A124B351A2}"/>
+    <hyperlink ref="E101" r:id="rId260" xr:uid="{9FF7234E-08A5-44FC-8AB5-9434224DB809}"/>
+    <hyperlink ref="E102" r:id="rId261" xr:uid="{2A1C684E-6BF7-4065-9BDF-E49BF11F45E8}"/>
+    <hyperlink ref="E103" r:id="rId262" xr:uid="{013507B7-EB54-4EC4-B499-D84C01AAB4EA}"/>
+    <hyperlink ref="E104" r:id="rId263" xr:uid="{D331B744-667C-4D9E-9896-68BC53D0D465}"/>
+    <hyperlink ref="E105" r:id="rId264" xr:uid="{6BE5753A-B760-4121-A40A-3363F05804BE}"/>
+    <hyperlink ref="E106" r:id="rId265" xr:uid="{9EBD13D4-8BA8-47BE-9EE0-6DFD5EAEFAD7}"/>
+    <hyperlink ref="E107" r:id="rId266" xr:uid="{4BE6F7BD-458D-4BD5-885C-E1997A64487E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/μ's Complete BEST BOX.xlsx
+++ b/data/μ's Complete BEST BOX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\alex\TIL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80532BA8-8B9C-410D-95E2-9A66D0C26C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69959857-3895-4BCF-9F7F-F4D18BB093F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="0" windowWidth="15630" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
+    <workbookView xWindow="13320" yWindow="0" windowWidth="15585" windowHeight="15585" xr2:uid="{02735F06-2FDC-4827-9985-ECBD1B626421}"/>
   </bookViews>
   <sheets>
     <sheet name="μ's Complete BEST BOX" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
   <si>
     <t>track</t>
   </si>
@@ -870,6 +870,97 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=zMipXg-4LE4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Angelic Angel</t>
+  </si>
+  <si>
+    <t>Hello,星を数えて</t>
+  </si>
+  <si>
+    <t>SUNNY DAY SONG</t>
+  </si>
+  <si>
+    <t>？←HEARTBEAT</t>
+  </si>
+  <si>
+    <t>僕たちはひとつの光</t>
+  </si>
+  <si>
+    <t>Future style</t>
+  </si>
+  <si>
+    <t>これから</t>
+  </si>
+  <si>
+    <t>MOMENT RING</t>
+  </si>
+  <si>
+    <t>さようならへさよなら！</t>
+  </si>
+  <si>
+    <t>星空 凛、西木野真姫、小泉花陽</t>
+  </si>
+  <si>
+    <t>絢瀬絵里、東條 希、矢澤にこ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_9FhBDS4Kdw</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xKzzAV63r3w</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5pG3aTCgnmA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B0Bu63nmArQ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>SUNNY DAY SONG</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (Movie Edit)</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KJEnC-oqiTg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RcYtUeu4EqQ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LdwEicog-3g</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pmold6wxrfA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y8H_WPQjUNc</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UHLoMv80BCg</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -877,7 +968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1141,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1903,7 +2003,7 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4057,50 +4157,200 @@
       <c r="A108">
         <v>107</v>
       </c>
+      <c r="B108" s="6">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F108" s="6">
+        <v>101</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
+      <c r="B109" s="6">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F109" s="6">
+        <v>102</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
+      <c r="B110" s="6">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F110" s="6">
+        <v>103</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
+      <c r="B111" s="6">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F111" s="6">
+        <v>103</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B112" s="6">
+        <v>12</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F112" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B113" s="6">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F113" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B114" s="6">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F114" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B115" s="6">
+        <v>12</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A117">
+      <c r="B116" s="6">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F116" s="6">
         <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7">
+        <v>12</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="7">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4372,6 +4622,35 @@
     <hyperlink ref="E105" r:id="rId264" xr:uid="{6BE5753A-B760-4121-A40A-3363F05804BE}"/>
     <hyperlink ref="E106" r:id="rId265" xr:uid="{9EBD13D4-8BA8-47BE-9EE0-6DFD5EAEFAD7}"/>
     <hyperlink ref="E107" r:id="rId266" xr:uid="{4BE6F7BD-458D-4BD5-885C-E1997A64487E}"/>
+    <hyperlink ref="C108" r:id="rId267" display="https://ll-fans.jp/data/song/101" xr:uid="{EB7CB70A-2903-497D-B75F-FADB473B1B0A}"/>
+    <hyperlink ref="C109" r:id="rId268" display="https://ll-fans.jp/data/song/102" xr:uid="{16406424-0390-4133-9C72-A81C156A7D33}"/>
+    <hyperlink ref="C110" r:id="rId269" display="https://ll-fans.jp/data/song/103" xr:uid="{2532DA62-EB0A-41BE-853D-3E264B32074B}"/>
+    <hyperlink ref="C111" r:id="rId270" display="https://ll-fans.jp/data/song/103" xr:uid="{ABC24187-BB0E-4279-AE56-A3DD9CFA8644}"/>
+    <hyperlink ref="C112" r:id="rId271" display="https://ll-fans.jp/data/song/104" xr:uid="{F2B76912-9370-4F62-9545-801FD5769EB7}"/>
+    <hyperlink ref="C113" r:id="rId272" display="https://ll-fans.jp/data/song/105" xr:uid="{BFD669F6-4B75-4378-81FD-D7164ADF5A04}"/>
+    <hyperlink ref="C114" r:id="rId273" display="https://ll-fans.jp/data/song/106" xr:uid="{A3AA2DEA-264E-4A12-8E77-C81C54A17973}"/>
+    <hyperlink ref="C115" r:id="rId274" display="https://ll-fans.jp/data/song/111" xr:uid="{607D3DE0-8E88-4B8E-B0AB-ADCD82C10040}"/>
+    <hyperlink ref="C116" r:id="rId275" display="https://ll-fans.jp/data/song/116" xr:uid="{9E42526E-0129-4B52-AD11-86C345B23B48}"/>
+    <hyperlink ref="C117" r:id="rId276" display="https://ll-fans.jp/data/song/117" xr:uid="{F2739783-3955-4504-BDA7-41A5EBA3DC38}"/>
+    <hyperlink ref="D108" r:id="rId277" display="https://ll-fans.jp/data/artist/1" xr:uid="{EBC6119E-E313-4281-B785-D738C6D6D5F4}"/>
+    <hyperlink ref="D109" r:id="rId278" display="https://ll-fans.jp/data/artist/20" xr:uid="{707979CA-306F-4533-B9C9-988E7F1ADAC0}"/>
+    <hyperlink ref="D110" r:id="rId279" display="https://ll-fans.jp/data/artist/1" xr:uid="{037F41D1-B939-454E-95A7-1D7C49D5C3DC}"/>
+    <hyperlink ref="D111" r:id="rId280" display="https://ll-fans.jp/data/artist/1" xr:uid="{4E9647C7-BB26-4B12-9022-DE770A873B81}"/>
+    <hyperlink ref="D112" r:id="rId281" display="https://ll-fans.jp/data/artist/21" xr:uid="{D8832A02-0532-4CE4-8AD6-6D08961A1123}"/>
+    <hyperlink ref="D113" r:id="rId282" display="https://ll-fans.jp/data/artist/1" xr:uid="{F26D590A-C907-4623-94DA-925C08B9E246}"/>
+    <hyperlink ref="D114" r:id="rId283" display="https://ll-fans.jp/data/artist/19" xr:uid="{537E6CA7-71E7-4B65-B97C-F7104C833D3D}"/>
+    <hyperlink ref="D115" r:id="rId284" display="https://ll-fans.jp/data/artist/1" xr:uid="{0F0D1F3A-BA2F-408A-9AC6-BB97A972E32A}"/>
+    <hyperlink ref="D116:D117" r:id="rId285" display="https://ll-fans.jp/data/artist/1" xr:uid="{8F2A47B9-F409-4EE1-B93A-0AEDF6E532ED}"/>
+    <hyperlink ref="E108" r:id="rId286" xr:uid="{6C15F4F0-63C9-4C49-9F84-B3781F0EFD0C}"/>
+    <hyperlink ref="E109" r:id="rId287" xr:uid="{20303D57-C1BD-4B58-A46A-B10424A34702}"/>
+    <hyperlink ref="E110" r:id="rId288" xr:uid="{2FB77101-747F-4C2B-BFF3-BF0BF5F51BC4}"/>
+    <hyperlink ref="E111" r:id="rId289" xr:uid="{BCF6F9CD-5AC4-4BD7-BDCE-0A35892E3BEF}"/>
+    <hyperlink ref="E112" r:id="rId290" xr:uid="{37CBBC87-D0FF-4F3B-B2F6-D8CB7C066BE4}"/>
+    <hyperlink ref="E113" r:id="rId291" xr:uid="{0D5E38B8-0B68-4AFB-A43A-846815C8DF8C}"/>
+    <hyperlink ref="E114" r:id="rId292" xr:uid="{27B29525-F7F4-4E74-B130-8EB8E9CA06D5}"/>
+    <hyperlink ref="E115" r:id="rId293" xr:uid="{D0354DD9-F7F6-476F-89D2-1BD8F1EE7EB2}"/>
+    <hyperlink ref="E116" r:id="rId294" xr:uid="{37943F27-E4FF-4939-837E-E5A49BB7A65D}"/>
+    <hyperlink ref="E117" r:id="rId295" xr:uid="{5CBA6C77-8C09-4F24-84C8-2BF4EAADF30C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
